--- a/Bases/ENADID_2023.xlsx
+++ b/Bases/ENADID_2023.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Personal\Discapacidad_Mexico\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20065BDE-C878-4A73-96E0-69DCE112F3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101EB76-9203-496B-89F3-CE8354B3DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos de edad" sheetId="1" r:id="rId1"/>
     <sheet name="Estados" sheetId="2" r:id="rId2"/>
+    <sheet name="Actividad con dificultad" sheetId="3" r:id="rId3"/>
+    <sheet name="Causas" sheetId="4" r:id="rId4"/>
+    <sheet name="Servicios de Salud" sheetId="5" r:id="rId5"/>
+    <sheet name="Escolaridad" sheetId="6" r:id="rId6"/>
+    <sheet name="PEA" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estados!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estados!$A$4:$C$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,11 +45,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
   <si>
     <t>Grupos</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
     <t>De 5 a 9 años</t>
   </si>
   <si>
@@ -313,6 +324,213 @@
   </si>
   <si>
     <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Ver, aun usando lentes</t>
+  </si>
+  <si>
+    <t>Caminar, subir o bajar usando sus piernas</t>
+  </si>
+  <si>
+    <t>Oir, aun usando su aparato auditivo</t>
+  </si>
+  <si>
+    <t>Mover o usar brazos o manos</t>
+  </si>
+  <si>
+    <t>Recordar o concentrarse</t>
+  </si>
+  <si>
+    <t>Realizar sus actividades diarias debido a problemas emocionales o mentales</t>
+  </si>
+  <si>
+    <t>Bañarse, vestirse o comer</t>
+  </si>
+  <si>
+    <t>Hablar o comunicarse</t>
+  </si>
+  <si>
+    <t>Actividad con dificultad</t>
+  </si>
+  <si>
+    <t>Causas</t>
+  </si>
+  <si>
+    <t>Enfermedad</t>
+  </si>
+  <si>
+    <t>Edad avanzada</t>
+  </si>
+  <si>
+    <t>Nació así</t>
+  </si>
+  <si>
+    <t>Accidente</t>
+  </si>
+  <si>
+    <t>Por su trabajo</t>
+  </si>
+  <si>
+    <t>Violencia</t>
+  </si>
+  <si>
+    <t>Por uso de la tecnología</t>
+  </si>
+  <si>
+    <t>Otra causa</t>
+  </si>
+  <si>
+    <t>No especificada</t>
+  </si>
+  <si>
+    <t>Instituciones de seguridad social</t>
+  </si>
+  <si>
+    <t>Programas sociales</t>
+  </si>
+  <si>
+    <t>Instituciones públicas</t>
+  </si>
+  <si>
+    <t>Instituciones privadas</t>
+  </si>
+  <si>
+    <t>Otra institución</t>
+  </si>
+  <si>
+    <t>Intituciones de afiliaciones a servicios de salud</t>
+  </si>
+  <si>
+    <t>Condiciones de discapacidad y sexo</t>
+  </si>
+  <si>
+    <t>Sin discapacidad</t>
+  </si>
+  <si>
+    <t>Con discapacidad</t>
+  </si>
+  <si>
+    <t>Se refiere a las personas que tienen como respuesta «No tiene dificultad» o «lo hace con poca dificultad» en todas las actividades por las que se indaga</t>
+  </si>
+  <si>
+    <t>Se refiere a las personas que tienen como respuesta «Lo hace con mucha dificultad» o «No puede hacerlo», en cada una de las actividades por las cuales se indaga.</t>
+  </si>
+  <si>
+    <t>Incluye IMSS, ISSSTE o ISSSTE estatal y a PEMEX, Defensa o Marina</t>
+  </si>
+  <si>
+    <t>Incluye INSABI o Seguro Popular e IMSS-Bienestar</t>
+  </si>
+  <si>
+    <t>Incluye Centro de salud, hospital u otro instituto de salud de gobierno.</t>
+  </si>
+  <si>
+    <t>Incluye seguro privado o de gastos médicos</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>La suma de los porcentajes por institución puede ser mayor que 100 % debido a que algunas personas pudieron declarar afiliación a más de una institución. Se excluye a la población que no especificó su edad</t>
+  </si>
+  <si>
+    <t>Fuente: INEGI. Encuesta Nacional de la Dinámica Demográfica (ENADID), 2023. Base de datos. Sistema Nacional de Información Estadística y Geográfica (SNIEG). Información de Interés Nacional (IIN).</t>
+  </si>
+  <si>
+    <t>Población de 5 años y más con afiliación en alguna institución de salud, por institución de afiliación, según condición de discapacidad y sexo, 2023</t>
+  </si>
+  <si>
+    <t>(porcentajes)</t>
+  </si>
+  <si>
+    <t>Población de 15 años y más, por nivel de escolaridad, según condición de discapacidad y sexo, 2023</t>
+  </si>
+  <si>
+    <t>Nivel de escolaridad</t>
+  </si>
+  <si>
+    <t>Sin escolaridad</t>
+  </si>
+  <si>
+    <t>Primaria incompleta</t>
+  </si>
+  <si>
+    <t>Primaria completa</t>
+  </si>
+  <si>
+    <t>Secundaria incompleta</t>
+  </si>
+  <si>
+    <t>Secundaria completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medio superior </t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Se refiere a las personas que tienen como respuesta «No tiene dificultad» o «lo hace con poca dificultad» en todas las actividades por las que se indaga.</t>
+  </si>
+  <si>
+    <t>Incluye a la población con al menos un grado aprobado de bachillerato o equivalente.</t>
+  </si>
+  <si>
+    <t>Incluye a la población con al menos un grado aprobado de licenciatura o equivalente.</t>
+  </si>
+  <si>
+    <t>No se incluye a la población que no especificó su edad. El porcentaje se calcula con respecto al total de población en cada condición de discapacidad y sexo.</t>
+  </si>
+  <si>
+    <t>Tasa de participación económica de la población de 15 años y más, según condición de discapacidad y sexo, 2023</t>
+  </si>
+  <si>
+    <t>Condición</t>
+  </si>
+  <si>
+    <t>El porcentaje se calculó con respecto al total de población de 15 años y más, para cada condición de discapacidad y sexo. Se excluye a la población que no especificó su edad.</t>
+  </si>
+  <si>
+    <t>Causas de la dificultad de la población de 5 años y más con discapacidad1¿, 2023</t>
+  </si>
+  <si>
+    <t>El porcentaje se calcula con respecto al total de actividades con dificultad. Las opciones «Por su trabajo» y «Por uso de la tecnología» fueron creadas a partir de la codificación de las respuestas textuales registradas en la pregunta de causa de la dificultad</t>
+  </si>
+  <si>
+    <t>Se refiere a las personas que tienen como respuesta «Lo hace con mucha dificultad» o «No puede hacerlo», en cada una de las actividades por las cuales se indaga</t>
+  </si>
+  <si>
+    <t>Incluye uso de audífonos, computadoras, laptop, tablet, teléfono celular, ver pantallas, consolas de videojuego, entre otros dispositivos electrónicos.</t>
+  </si>
+  <si>
+    <t>Población de 5 años y más con discapacidad,1/ por actividad con dificultad, según sexo, 2023</t>
+  </si>
+  <si>
+    <t>(Porcentajes)</t>
+  </si>
+  <si>
+    <t>La suma de los porcentajes por sexo es mayor a 100 debido a que una persona pudo reportar dificultad en más de una actividad. El porcentaje se calcula con respecto al total de la población con discapacidad para cada sexo.</t>
+  </si>
+  <si>
+    <t>Población de 5 años y más con discapacidad, por entidad federativa, 2023</t>
+  </si>
+  <si>
+    <t>Notas: La población con discapacidad se refiere a los casos que tienen registrada como respuesta «Lo hace con mucha dificultad» o «No puede hacerlo», en al menos una de las actividades por la que se preguntó. El porcentaje se calculó con respecto al total de población de 5 años y más, en cada entidad. Se excluye a la población que no especificó su edad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La población con discapacidad se refiere a los casos que tienen registrada como respuesta «Lo hace con mucha dificultad» o «No puede hacerlo» en al menos una de las actividades por la que se preguntó. El porcentaje se calculó con respecto al total de población de 5 años y más, por condición de discapacidad. </t>
+  </si>
+  <si>
+    <t>Se excluye a la población que no especificó su edad y a la de 0 a 4 años, debido a que es la edad en la cual se puede confundir la dificultad para realizar algunas actividades debido al proceso de desarrollo infantil.</t>
+  </si>
+  <si>
+    <t>Población de 5 años y más, por grupo quinquenal de edad y sexo, según condición de discapacidad</t>
   </si>
 </sst>
 </file>
@@ -323,7 +541,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="##"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +557,21 @@
     <font>
       <sz val="8"/>
       <name val="Montserrat Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,6 +627,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F12BDC-5492-4F6C-B140-EA6B918B28E2}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -742,117 +1040,76 @@
     <col min="2" max="5" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.5</v>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C5" s="4">
-        <v>4.3</v>
-      </c>
       <c r="D5" s="4">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="E5" s="4">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>3.9</v>
-      </c>
       <c r="C6" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="D6" s="4">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="4">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="C7" s="4">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D7" s="4">
         <v>1.9</v>
@@ -863,190 +1120,279 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C8" s="4">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D8" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E8" s="4">
         <v>1.7</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C9" s="4">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D9" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="E9" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="C10" s="4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D10" s="4">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="E10" s="4">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C11" s="4">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D11" s="4">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="E11" s="4">
-        <v>4.4000000000000004</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="C12" s="4">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D12" s="4">
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E12" s="4">
-        <v>5.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D13" s="4">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="E13" s="4">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="C14" s="4">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="D14" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="E14" s="4">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C15" s="4">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E15" s="4">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="C16" s="4">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="D16" s="4">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="E16" s="4">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="4">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E17" s="4">
-        <v>3.9</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
         <v>0.2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C21" s="3">
         <v>0.3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D21" s="3">
         <v>2.9</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E21" s="3">
         <v>4.5</v>
       </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1055,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268985DD-9E71-4C79-857E-DF484F9CAF7F}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
@@ -1068,125 +1414,102 @@
     <col min="3" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10.1</v>
+      <c r="A2" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.9</v>
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
-        <v>8.8000000000000007</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2">
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
-        <v>8.3000000000000007</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>7.7</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1197,95 +1520,95 @@
         <v>86</v>
       </c>
       <c r="C12" s="2">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
+      <c r="A17" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
-        <v>81</v>
+      <c r="A20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1296,158 +1619,1257 @@
         <v>58</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2">
-        <v>6.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
         <v>5.2</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C34" xr:uid="{268985DD-9E71-4C79-857E-DF484F9CAF7F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
-      <sortCondition descending="1" ref="C1:C34"/>
-    </sortState>
-  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135ABF97-D1C7-491F-8FDB-DA06B18072F6}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.46484375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAAE16-6D01-4151-AD8A-368702C859D1}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAC87DB-5E8E-4790-BB20-2FC9403B9794}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.3984375" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4">
+        <v>69.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15352A99-2237-4FE2-9762-B422E51E3F8F}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="17.9296875" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="23">
+        <v>11.9</v>
+      </c>
+      <c r="C10" s="23">
+        <v>11.4</v>
+      </c>
+      <c r="D10" s="23">
+        <v>11.4</v>
+      </c>
+      <c r="E10" s="23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F10" s="23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G10" s="23">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="C11" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2.7</v>
+      </c>
+      <c r="G11" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="25">
+        <v>25</v>
+      </c>
+      <c r="C12" s="29">
+        <v>24.6</v>
+      </c>
+      <c r="D12" s="29">
+        <v>24.6</v>
+      </c>
+      <c r="E12" s="29">
+        <v>18</v>
+      </c>
+      <c r="F12" s="29">
+        <v>18</v>
+      </c>
+      <c r="G12" s="29">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A13" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="12">
+        <v>25.4</v>
+      </c>
+      <c r="C13" s="12">
+        <v>25.9</v>
+      </c>
+      <c r="D13" s="12">
+        <v>25.9</v>
+      </c>
+      <c r="E13" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="F13" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="G13" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A14" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="16">
+        <v>24.6</v>
+      </c>
+      <c r="C14" s="16">
+        <v>25.2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>25.2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>12.2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>12.2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="13">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A19" s="13">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E7C292-5427-47C5-807B-AEC062444311}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="33">
+        <v>68</v>
+      </c>
+      <c r="C4" s="33">
+        <v>84.1</v>
+      </c>
+      <c r="D4" s="33">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="35">
+        <v>40.6</v>
+      </c>
+      <c r="C5" s="35">
+        <v>51.5</v>
+      </c>
+      <c r="D5" s="35">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bases/ENADID_2023.xlsx
+++ b/Bases/ENADID_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Personal\Discapacidad_Mexico\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101EB76-9203-496B-89F3-CE8354B3DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1932F-DF79-4A66-A085-94B37661845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos de edad" sheetId="1" r:id="rId1"/>
@@ -494,9 +494,6 @@
     <t>El porcentaje se calculó con respecto al total de población de 15 años y más, para cada condición de discapacidad y sexo. Se excluye a la población que no especificó su edad.</t>
   </si>
   <si>
-    <t>Causas de la dificultad de la población de 5 años y más con discapacidad1¿, 2023</t>
-  </si>
-  <si>
     <t>El porcentaje se calcula con respecto al total de actividades con dificultad. Las opciones «Por su trabajo» y «Por uso de la tecnología» fueron creadas a partir de la codificación de las respuestas textuales registradas en la pregunta de causa de la dificultad</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>Población de 5 años y más, por grupo quinquenal de edad y sexo, según condición de discapacidad</t>
+  </si>
+  <si>
+    <t>Causas de la dificultad de la población de 5 años y más con discapacidad, 2023</t>
   </si>
 </sst>
 </file>
@@ -1030,9 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F12BDC-5492-4F6C-B140-EA6B918B28E2}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1042,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A1" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1364,10 +1362,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -1375,7 +1373,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -1403,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268985DD-9E71-4C79-857E-DF484F9CAF7F}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
@@ -1416,12 +1414,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1800,7 +1798,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -1818,7 +1816,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
@@ -1829,12 +1827,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1968,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1976,7 +1974,7 @@
         <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1993,9 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAAE16-6D01-4151-AD8A-368702C859D1}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2005,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -2098,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -2106,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -2114,7 +2110,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">

--- a/Bases/ENADID_2023.xlsx
+++ b/Bases/ENADID_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Personal\Discapacidad_Mexico\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1932F-DF79-4A66-A085-94B37661845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFEF1E9-076E-40EB-A2B4-9E6C16145B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos de edad" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
   <si>
     <t>Grupos</t>
   </si>
@@ -531,6 +531,24 @@
   </si>
   <si>
     <t>Causas de la dificultad de la población de 5 años y más con discapacidad, 2023</t>
+  </si>
+  <si>
+    <t>Total_SD</t>
+  </si>
+  <si>
+    <t>Hombres_SD</t>
+  </si>
+  <si>
+    <t>Mujeres_SD</t>
+  </si>
+  <si>
+    <t>Total_CD</t>
+  </si>
+  <si>
+    <t>Hombres_CD</t>
+  </si>
+  <si>
+    <t>Mujeres_CD</t>
   </si>
 </sst>
 </file>
@@ -603,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,6 +711,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FAAE16-6D01-4151-AD8A-368702C859D1}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2127,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAC87DB-5E8E-4790-BB20-2FC9403B9794}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
@@ -2168,10 +2189,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>118</v>
-      </c>
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="17" t="s">
         <v>119</v>
       </c>
@@ -2182,7 +2200,7 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="17" t="s">
         <v>120</v>
       </c>
@@ -2194,25 +2212,27 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.45">
+      <c r="A7" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="B7" s="16" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -2392,8 +2412,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="4">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B5:G5"/>

--- a/Bases/ENADID_2023.xlsx
+++ b/Bases/ENADID_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Personal\Discapacidad_Mexico\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFEF1E9-076E-40EB-A2B4-9E6C16145B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C00B14-6AD6-4B32-BC91-27FFC98BB304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{054E0982-B31B-4B41-95B0-65AE04D970F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos de edad" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,12 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,7 +1054,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1377,9 +1371,9 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
@@ -1388,30 +1382,30 @@
       <c r="B23" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2021,7 +2015,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2148,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAC87DB-5E8E-4790-BB20-2FC9403B9794}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
@@ -2159,79 +2153,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.45">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2328,7 +2322,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="3">
@@ -2426,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15352A99-2237-4FE2-9762-B422E51E3F8F}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -2437,85 +2431,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A5" s="34"/>
+      <c r="B5" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A6" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>2</v>
+      <c r="B6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4">
@@ -2587,75 +2580,75 @@
       <c r="A10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>11.9</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>11.4</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>11.4</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>19.100000000000001</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>19.100000000000001</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>20.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>2.7</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>3.1</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>3.1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>2.7</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>2.7</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>25</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>24.6</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>24.6</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <v>18</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>18</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>17.399999999999999</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B13" s="12">
@@ -2676,31 +2669,31 @@
       <c r="G13" s="12">
         <v>12.5</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>24.6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>25.2</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>25.2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>12.2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>12.2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <v>11.5</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A15" s="2"/>
@@ -2783,8 +2776,7 @@
       <c r="B21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A6"/>
+  <mergeCells count="4">
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
@@ -2809,7 +2801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2831,13 +2823,13 @@
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>68</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <v>84.1</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>53.3</v>
       </c>
     </row>
@@ -2845,13 +2837,13 @@
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>40.6</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>51.5</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>31.3</v>
       </c>
     </row>
